--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-495607.9702338661</v>
+        <v>-498263.9549092054</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.83971693086</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>203.3071615939153</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>362.1302316884758</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>152.3728900015558</v>
       </c>
       <c r="H2" t="n">
         <v>308.5974454495113</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.3314872202194</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>219.0489221358164</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>83.21330036809998</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>260.1979753900271</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>64.83556544767973</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>86.2519713164118</v>
+        <v>234.8427521629835</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>56.12297540149661</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>157.4261574580954</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>35.47925893990045</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
@@ -1309,7 +1309,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.28933966002686</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>56.10180801516471</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1579,13 +1579,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1822,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>139.5271979141372</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>32.26041896250234</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5334195528337</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>97.24762927924149</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>215.7183996732927</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>33.58398714687327</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>212.0470961056012</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>177.314903109061</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>137.3021949834108</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>120.1447214650588</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>211.6917002284518</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,13 +3433,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>105.5518343409908</v>
+        <v>105.1820732698684</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3670,16 +3670,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.136400530893</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545309</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1509.250981232624</v>
+        <v>1519.561383463179</v>
       </c>
       <c r="C2" t="n">
-        <v>1140.288464292212</v>
+        <v>1314.200614176396</v>
       </c>
       <c r="D2" t="n">
-        <v>1140.288464292212</v>
+        <v>1314.200614176396</v>
       </c>
       <c r="E2" t="n">
-        <v>774.50035147557</v>
+        <v>928.4123615781516</v>
       </c>
       <c r="F2" t="n">
-        <v>363.5144466859625</v>
+        <v>517.4264567885441</v>
       </c>
       <c r="G2" t="n">
         <v>363.5144466859625</v>
@@ -4328,28 +4328,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073759</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>588.2897763927307</v>
       </c>
       <c r="L2" t="n">
-        <v>756.6502609489279</v>
+        <v>825.912557610922</v>
       </c>
       <c r="M2" t="n">
-        <v>1052.720827506531</v>
+        <v>1121.983124168524</v>
       </c>
       <c r="N2" t="n">
-        <v>1693.744037126425</v>
+        <v>1763.006333788418</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443059</v>
+        <v>2038.122553105052</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2238.426880394155</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466515</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
@@ -4361,19 +4361,19 @@
         <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.289017179001</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W2" t="n">
-        <v>2005.289017179001</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X2" t="n">
-        <v>2005.289017179001</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="Y2" t="n">
-        <v>1615.14968520319</v>
+        <v>1906.161223527301</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093827</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>77.11538214995046</v>
       </c>
       <c r="K3" t="n">
-        <v>254.8114688310732</v>
+        <v>460.3590590626819</v>
       </c>
       <c r="L3" t="n">
-        <v>831.5342839343288</v>
+        <v>1037.081874165937</v>
       </c>
       <c r="M3" t="n">
-        <v>1472.557493554223</v>
+        <v>1512.968691787247</v>
       </c>
       <c r="N3" t="n">
-        <v>2113.580703174116</v>
+        <v>1798.302562220579</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925575</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
@@ -4440,10 +4440,10 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281972</v>
+        <v>535.947758155513</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
         <v>51.79985532281972</v>
@@ -4486,52 +4486,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.034527330184</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159871</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341311</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666712</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092719</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357427</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993471</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361121</v>
       </c>
       <c r="R4" t="n">
-        <v>1264.402827320497</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="S4" t="n">
-        <v>1264.402827320497</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="T4" t="n">
-        <v>1039.991668095935</v>
+        <v>972.2807111916396</v>
       </c>
       <c r="U4" t="n">
-        <v>750.8550410880373</v>
+        <v>972.2807111916396</v>
       </c>
       <c r="V4" t="n">
-        <v>750.8550410880373</v>
+        <v>717.5962229857528</v>
       </c>
       <c r="W4" t="n">
-        <v>461.4378710510767</v>
+        <v>717.5962229857528</v>
       </c>
       <c r="X4" t="n">
-        <v>233.4483201530594</v>
+        <v>717.5962229857528</v>
       </c>
       <c r="Y4" t="n">
-        <v>233.4483201530594</v>
+        <v>717.5962229857528</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1279.116237208468</v>
+        <v>1149.368166636053</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.116237208468</v>
+        <v>1149.368166636053</v>
       </c>
       <c r="D5" t="n">
-        <v>920.8505386017175</v>
+        <v>791.1024680293028</v>
       </c>
       <c r="E5" t="n">
-        <v>920.8505386017175</v>
+        <v>791.1024680293028</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>380.1165632396953</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719912</v>
@@ -4565,16 +4565,16 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
         <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477384</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
         <v>1673.478115539971</v>
@@ -4592,25 +4592,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083233</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="V5" t="n">
-        <v>2005.350650739662</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="W5" t="n">
-        <v>1652.581995469548</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="X5" t="n">
-        <v>1279.116237208468</v>
+        <v>1926.107338675987</v>
       </c>
       <c r="Y5" t="n">
-        <v>1279.116237208468</v>
+        <v>1535.968006700175</v>
       </c>
     </row>
     <row r="6">
@@ -4644,28 +4644,28 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258289</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421436</v>
+        <v>724.0888213291483</v>
       </c>
       <c r="M6" t="n">
-        <v>965.564585834469</v>
+        <v>1365.112030949042</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1690.902827875742</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.3670713825771</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="C7" t="n">
-        <v>645.3670713825771</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="D7" t="n">
-        <v>495.2504319702414</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E7" t="n">
-        <v>347.3373383878483</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>200.4473908899379</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.049095695859</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.931318706258</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.931318706258</v>
+        <v>804.6103767213841</v>
       </c>
       <c r="W7" t="n">
-        <v>1047.808115356347</v>
+        <v>567.3954755466533</v>
       </c>
       <c r="X7" t="n">
-        <v>1047.808115356347</v>
+        <v>567.3954755466533</v>
       </c>
       <c r="Y7" t="n">
-        <v>827.0155362128169</v>
+        <v>346.6028964031232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>843.3897148123031</v>
+        <v>1891.268198591499</v>
       </c>
       <c r="C8" t="n">
-        <v>474.4271978718913</v>
+        <v>1522.305681651088</v>
       </c>
       <c r="D8" t="n">
-        <v>474.4271978718913</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>367.2658256564855</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
         <v>51.79985532281972</v>
@@ -4805,13 +4805,13 @@
         <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.831944713551</v>
+        <v>447.8319447135518</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2533.30289199806</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T8" t="n">
-        <v>2324.657532456887</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="U8" t="n">
-        <v>2324.657532456887</v>
+        <v>2381.347406599813</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.594645113316</v>
+        <v>2050.284519256242</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.594645113316</v>
+        <v>2050.284519256242</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.128886852237</v>
+        <v>2050.284519256242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.989554876425</v>
+        <v>1891.268198591499</v>
       </c>
     </row>
     <row r="9">
@@ -4866,16 +4866,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
         <v>51.79985532281972</v>
@@ -4884,22 +4884,22 @@
         <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>563.7673318682816</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>861.0792809845964</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.385170476922</v>
+        <v>965.5645858344687</v>
       </c>
       <c r="N9" t="n">
-        <v>1860.807072136007</v>
+        <v>1355.974147160211</v>
       </c>
       <c r="O9" t="n">
-        <v>2195.735752851538</v>
+        <v>1690.902827875742</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.212480716556</v>
+        <v>2255.657696694298</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.5402190403843</v>
+        <v>804.6103767213839</v>
       </c>
       <c r="C10" t="n">
-        <v>518.5402190403843</v>
+        <v>804.6103767213839</v>
       </c>
       <c r="D10" t="n">
-        <v>368.4235796280485</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E10" t="n">
-        <v>368.4235796280485</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F10" t="n">
-        <v>368.4235796280485</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4984,28 +4984,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1602.246963426578</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1405.797297432547</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="T10" t="n">
-        <v>1182.862722974528</v>
+        <v>1348.412641916872</v>
       </c>
       <c r="U10" t="n">
-        <v>1182.862722974528</v>
+        <v>1059.294864927271</v>
       </c>
       <c r="V10" t="n">
-        <v>928.1782347686413</v>
+        <v>804.6103767213839</v>
       </c>
       <c r="W10" t="n">
-        <v>928.1782347686413</v>
+        <v>804.6103767213839</v>
       </c>
       <c r="X10" t="n">
-        <v>700.188683870624</v>
+        <v>804.6103767213839</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.188683870624</v>
+        <v>804.6103767213839</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>988.1395539230172</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>819.2033709951103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>669.0867315827745</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>521.1736380003814</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>374.283690502471</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,13 +5358,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1547.449290305074</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>950.7540666811333</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1055.185257670615</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C19" t="n">
-        <v>886.249074742708</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>736.1324353303722</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>588.2193417479791</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>441.3293942500687</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>274.1332949649487</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1975.033022579363</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1685.615852542402</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1457.626301644385</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>1236.833722500854</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111703</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6075,19 +6075,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935562</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>666.6476097656493</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>666.6476097656493</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>518.7345161832562</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1466.014387565343</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6412,22 +6412,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>546.5917956728314</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>399.701848174921</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>232.5057488898009</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233313</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1439.472830395119</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.483279497101</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.6907003535711</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273906</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1063.573343591574</v>
+        <v>916.3099000622266</v>
       </c>
       <c r="C37" t="n">
-        <v>894.6371606636669</v>
+        <v>747.3737171343197</v>
       </c>
       <c r="D37" t="n">
-        <v>744.5205212513312</v>
+        <v>597.2570777219839</v>
       </c>
       <c r="E37" t="n">
-        <v>596.607427668938</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="F37" t="n">
-        <v>449.7174801710277</v>
+        <v>449.3439841395908</v>
       </c>
       <c r="G37" t="n">
-        <v>282.5213808859076</v>
+        <v>282.1478848544708</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>1546.740494934014</v>
       </c>
       <c r="X37" t="n">
-        <v>1466.014387565343</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y37" t="n">
-        <v>1245.221808421813</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192571</v>
@@ -7175,28 +7175,28 @@
         <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942668</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979287</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7397,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319336</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656829</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150036</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>134.5347393134949</v>
       </c>
       <c r="L2" t="n">
-        <v>233.6694386653708</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>338.9374781659691</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8058,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>56.84140849580143</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660668</v>
+        <v>214.0881678038615</v>
       </c>
       <c r="N3" t="n">
-        <v>359.2821607945058</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>106.3489695567899</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>274.5176649421942</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>245.4670104377196</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>191.4694788103615</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277.8941247326205</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>259.9148486934884</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885173</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.15197283175038</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>109.4223302771041</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>112.6104454096908</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>186.3242343895924</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>31.71340154579417</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>43.04708356698239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>70.46607471595149</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>111.837060876058</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>13.66255928343594</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>48.39475227997619</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.992517862813116</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>166.0397529241853</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>137.2878198583893</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>74.83129810813918</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>34.74287850523304</v>
+        <v>35.11263957635548</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.548983163957018e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>229059.6437758985</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058919</v>
       </c>
       <c r="D2" t="n">
         <v>266838.575205892</v>
@@ -26323,13 +26323,13 @@
         <v>262322.644899252</v>
       </c>
       <c r="F2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
-        <v>262322.644899252</v>
+        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
         <v>262322.6448992519</v>
@@ -26350,10 +26350,10 @@
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753976</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898924</v>
+        <v>172764.3597898934</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>169414.0168260479</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042354</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93438.23816781121</v>
+        <v>93438.23816781139</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26424,40 +26424,40 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695042</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695033</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.3397947885</v>
       </c>
       <c r="O4" t="n">
         <v>14278.33979478854</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478852</v>
+        <v>14278.33979478854</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699087</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893406.6051643022</v>
+        <v>-893697.2123291476</v>
       </c>
       <c r="C6" t="n">
-        <v>-128473.628670758</v>
+        <v>-128473.6286707591</v>
       </c>
       <c r="D6" t="n">
         <v>44290.73111913446</v>
       </c>
       <c r="E6" t="n">
-        <v>-345976.2332021008</v>
+        <v>-346010.9711275367</v>
       </c>
       <c r="F6" t="n">
-        <v>154912.6345436499</v>
+        <v>154877.896618214</v>
       </c>
       <c r="G6" t="n">
-        <v>154912.6345436499</v>
+        <v>154877.8966182141</v>
       </c>
       <c r="H6" t="n">
-        <v>154912.6345436498</v>
+        <v>154877.8966182139</v>
       </c>
       <c r="I6" t="n">
-        <v>154912.6345436496</v>
+        <v>154877.896618214</v>
       </c>
       <c r="J6" t="n">
-        <v>-14501.38228239803</v>
+        <v>-14536.12020783372</v>
       </c>
       <c r="K6" t="n">
-        <v>154912.6345436498</v>
+        <v>154877.8966182141</v>
       </c>
       <c r="L6" t="n">
-        <v>154912.6345436498</v>
+        <v>154877.896618214</v>
       </c>
       <c r="M6" t="n">
-        <v>24028.17763941432</v>
+        <v>23993.43971397883</v>
       </c>
       <c r="N6" t="n">
         <v>129968.4015635567</v>
       </c>
       <c r="O6" t="n">
-        <v>149396.1195571886</v>
+        <v>149396.1195571884</v>
       </c>
       <c r="P6" t="n">
-        <v>149396.1195571883</v>
+        <v>149396.1195571885</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976097</v>
       </c>
       <c r="C3" t="n">
         <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976097</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522338</v>
+        <v>189.7254341522349</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,22 +26975,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>161.9657301770923</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>19.80013838378602</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3.118125496499886</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>323.6627453736115</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>151.3270479918423</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>200.2710270201792</v>
+        <v>51.68024617360751</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.81243337295641</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>228.8117811979582</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>113.1362140783119</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>56.81080896051754</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090891</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066895</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611369</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014937</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682851</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658683</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485895</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775956</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330904</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325346</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282124</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072712</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674104</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307771</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261556</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.262332560511</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911972</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240732</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257154</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028909</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969222</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993425</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777202</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855589</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600313</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932505</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.15908051844</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311391</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519961</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567077</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965187</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31619,19 +31619,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31677,25 +31677,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>579.5299594447137</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>433.9798411722591</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,7 +32078,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>556.7959610899863</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32315,13 +32315,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>537.2623544349631</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -33026,10 +33026,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33263,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>687.0167715190033</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33968,13 +33968,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>397.6543049213403</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.944966752077</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>297.9640444296513</v>
       </c>
       <c r="L2" t="n">
-        <v>473.6924499968779</v>
+        <v>240.0230113315064</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.0611783410124</v>
       </c>
       <c r="N2" t="n">
         <v>647.4981915352464</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>277.8951710269027</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938092</v>
+        <v>202.327603322326</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185456</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138492</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>25.57123921932399</v>
       </c>
       <c r="K3" t="n">
-        <v>179.4909966475985</v>
+        <v>387.1148251643752</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>582.548298084096</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>480.6937551730404</v>
       </c>
       <c r="N3" t="n">
-        <v>647.4981915352464</v>
+        <v>288.2160307407399</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>241.217122981271</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689365</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>65.93752551686939</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451883111</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550911</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944467</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171355</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
         <v>188.5469589931441</v>
@@ -35021,22 +35021,22 @@
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>500.7020618050145</v>
       </c>
       <c r="O6" t="n">
         <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>526.5143597553446</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225504</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171355</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35261,16 +35261,16 @@
         <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>639.8201026859442</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297623</v>
+        <v>309.4991650401237</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,10 +35337,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>425.454249006653</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35817,7 +35817,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060466</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35963,13 +35963,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36443,22 +36443,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>394.6661099905186</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>544.4205270745589</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930849</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016748</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111713</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986648</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>263.67989750701</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
